--- a/Dinamicos__Tabela_e_Grfico.xlsx
+++ b/Dinamicos__Tabela_e_Grfico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMAN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMAN\Desktop\Curso-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFBFB1D-4AD0-4B1B-85E0-0AA79C7EDDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3FA96E-CF47-494D-AD74-4F5EDC892AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="49">
   <si>
     <t>Nome</t>
   </si>
@@ -137,6 +137,45 @@
   </si>
   <si>
     <t>Soma de Quantidade Comprada</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>fev</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>dez</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>Trim1</t>
+  </si>
+  <si>
+    <t>Trim3</t>
+  </si>
+  <si>
+    <t>Trim4</t>
   </si>
 </sst>
 </file>
@@ -267,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -292,6 +331,15 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1072,8 +1120,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C41F5C1-33BF-4845-B126-616980157B86}" name="Tabela dinâmica1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
-  <location ref="A3:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C41F5C1-33BF-4845-B126-616980157B86}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+  <location ref="A3:B36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="21">
@@ -1102,7 +1150,7 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
-        <item x="4"/>
+        <item sd="0" x="4"/>
         <item x="2"/>
         <item x="3"/>
         <item x="0"/>
@@ -1111,10 +1159,10 @@
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0">
+    <pivotField axis="axisRow" numFmtId="164" showAll="0">
       <items count="15">
         <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
+        <item x="1"/>
         <item sd="0" x="2"/>
         <item sd="0" x="3"/>
         <item sd="0" x="4"/>
@@ -1132,109 +1180,133 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="7">
         <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
+        <item x="1"/>
         <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
+        <item x="3"/>
+        <item x="4"/>
         <item sd="0" x="5"/>
         <item t="default" sd="0"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="8">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item sd="0" x="2"/>
         <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
+        <item x="4"/>
+        <item x="5"/>
         <item sd="0" x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="5">
+    <field x="7"/>
+    <field x="6"/>
+    <field x="3"/>
     <field x="1"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="26">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
+  <rowItems count="33">
     <i>
       <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
     </i>
     <i>
       <x v="2"/>
     </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
     <i>
       <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x v="14"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="4">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x v="10"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="4">
+      <x v="9"/>
+    </i>
+    <i r="4">
+      <x v="19"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="4">
       <x v="13"/>
     </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
+    <i r="2">
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -1246,17 +1318,6 @@
   <dataFields count="1">
     <dataField name="Soma de Quantidade Comprada" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="17" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1532,7 +1593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457CE7E0-6BA7-4D60-89A1-FE9124C86CC7}">
-  <dimension ref="A3:B29"/>
+  <dimension ref="A3:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -1540,7 +1601,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1555,209 +1616,265 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B4" s="19">
-        <v>13506</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>21</v>
+      <c r="A5" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B5" s="19">
-        <v>1670</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>16</v>
+      <c r="A6" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="B6" s="19">
-        <v>5858</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>11</v>
+      <c r="A7" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="B7" s="19">
-        <v>2166</v>
+        <v>50374</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B8" s="19">
-        <v>3812</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="19">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="19">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="19">
-        <v>11883</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="19">
-        <v>6258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>9</v>
-      </c>
       <c r="B11" s="19">
-        <v>1374</v>
+        <v>987</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>14</v>
+      <c r="A12" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="B12" s="19">
-        <v>3047</v>
+        <v>987</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>19</v>
+      <c r="A13" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="19">
-        <v>1204</v>
+        <v>987</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>25</v>
+      <c r="A14" s="22" t="s">
+        <v>2</v>
       </c>
       <c r="B14" s="19">
-        <v>20126</v>
+        <v>987</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>15</v>
+      <c r="A15" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="B15" s="19">
-        <v>5083</v>
+        <v>820</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B16" s="19">
-        <v>3578</v>
+        <v>16725</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>5</v>
+      <c r="A17" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="B17" s="19">
-        <v>9808</v>
+        <v>16725</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B18" s="19">
-        <v>1657</v>
+        <v>30799</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>22</v>
+      <c r="A19" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="B19" s="19">
-        <v>19524</v>
+        <v>20901</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>17</v>
+      <c r="A20" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="B20" s="19">
-        <v>9755</v>
+        <v>9898</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>2</v>
+      <c r="A21" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="B21" s="19">
-        <v>3904</v>
+        <v>21976</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B22" s="19">
-        <v>2129</v>
+        <v>21976</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="19">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="19">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="19">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="19">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="19">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="19">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="19">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="19">
-        <v>3736</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="B32" s="19">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="19">
-        <v>11784</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="B33" s="19">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="19">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="19">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="19">
-        <v>5762</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="19">
-        <v>3789</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="B34" s="19">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="19">
+        <v>19795</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B36" s="19">
         <v>76823</v>
       </c>
     </row>

--- a/Dinamicos__Tabela_e_Grfico.xlsx
+++ b/Dinamicos__Tabela_e_Grfico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMAN\Desktop\Curso-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3FA96E-CF47-494D-AD74-4F5EDC892AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A75E9F4-105E-48A9-BED5-2AED499C6BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,22 @@
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
     <sheet name="Dados" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="SegmentaçãodeDados_Cidade">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId4"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -28,8 +39,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>AMAN</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{6FC586BD-889D-48A7-86E4-F57880468897}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>AMAN:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+É o caso também usar segmentação de dados para filtrar apenas por determinado filtro, limpando o gráfico
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="36">
   <si>
     <t>Nome</t>
   </si>
@@ -136,46 +182,7 @@
     <t>Total Geral</t>
   </si>
   <si>
-    <t>Soma de Quantidade Comprada</t>
-  </si>
-  <si>
-    <t>jan</t>
-  </si>
-  <si>
-    <t>fev</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>nov</t>
-  </si>
-  <si>
-    <t>dez</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>Trim1</t>
-  </si>
-  <si>
-    <t>Trim3</t>
-  </si>
-  <si>
-    <t>Trim4</t>
+    <t>Soma de Valor Médio de Compra</t>
   </si>
 </sst>
 </file>
@@ -185,7 +192,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-416]mmmm\-yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +207,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -306,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -331,15 +351,6 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,6 +366,1244 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Dinamicos__Tabela_e_Grfico.xlsx]Planilha1!Tabela dinâmica1</c:name>
+    <c:fmtId val="18"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Planilha1!$A$4:$A$9</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Bruno</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Carol</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Gabriel</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Helena</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Belo Horizonte</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175740</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2308-44D0-9C9F-5DB2717106CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="1890804031"/>
+        <c:axId val="1890795295"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1890804031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1890795295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1890795295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1890804031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21472654-7061-45B5-BCFE-BD6921F763ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1895475</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Cidade 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA04F178-E4CA-472B-AC65-05149F958920}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Cidade 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3314700" y="314325"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,7 +1717,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="2002498446"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -1120,8 +2369,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C41F5C1-33BF-4845-B126-616980157B86}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
-  <location ref="A3:B36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C41F5C1-33BF-4845-B126-616980157B86}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="21">
@@ -1150,16 +2399,16 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
-        <item sd="0" x="4"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
+        <item x="4"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="0"/>
+        <item h="1" sd="0" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="164" showAll="0">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0">
       <items count="15">
         <item sd="0" x="0"/>
         <item x="1"/>
@@ -1178,9 +2427,9 @@
         <item t="default" sd="0"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="7">
         <item sd="0" x="0"/>
         <item x="1"/>
@@ -1191,122 +2440,38 @@
         <item t="default" sd="0"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="8">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item sd="0" x="2"/>
         <item sd="0" x="3"/>
-        <item x="4"/>
-        <item x="5"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
         <item sd="0" x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="5">
-    <field x="7"/>
-    <field x="6"/>
-    <field x="3"/>
+  <rowFields count="2">
     <field x="1"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="33">
+  <rowItems count="6">
     <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
+      <x/>
     </i>
     <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="3">
-      <x/>
-    </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
-    <i r="4">
-      <x v="14"/>
-    </i>
-    <i r="3">
-      <x v="3"/>
-    </i>
-    <i r="4">
-      <x v="9"/>
-    </i>
-    <i r="2">
       <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
     </i>
     <i r="1">
       <x v="4"/>
     </i>
-    <i r="2">
-      <x v="11"/>
-    </i>
-    <i r="2">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="5"/>
+    <i r="1">
+      <x v="6"/>
     </i>
     <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="3">
-      <x/>
-    </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
-    <i r="4">
-      <x v="3"/>
-    </i>
-    <i r="3">
-      <x v="2"/>
-    </i>
-    <i r="4">
-      <x v="1"/>
-    </i>
-    <i r="4">
-      <x v="10"/>
-    </i>
-    <i r="3">
-      <x v="3"/>
-    </i>
-    <i r="4">
-      <x v="9"/>
-    </i>
-    <i r="4">
-      <x v="19"/>
-    </i>
-    <i r="3">
-      <x v="4"/>
-    </i>
-    <i r="4">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
+      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -1316,8 +2481,19 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Soma de Quantidade Comprada" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Valor Médio de Compra" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="18" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1328,6 +2504,31 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Cidade" xr10:uid="{109CB022-7E68-4A5B-8F31-CD7059E3D114}" sourceName="Cidade">
+  <pivotTables>
+    <pivotTable tabId="2" name="Tabela dinâmica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="2002498446">
+      <items count="5">
+        <i x="4" s="1"/>
+        <i x="2"/>
+        <i x="3"/>
+        <i x="0"/>
+        <i x="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Cidade 1" xr10:uid="{4E898825-E5E6-4ADF-8826-23B5203DEBF0}" cache="SegmentaçãodeDados_Cidade" caption="Cidade" rowHeight="241300"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1592,18 +2793,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457CE7E0-6BA7-4D60-89A1-FE9124C86CC7}">
-  <dimension ref="A3:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457CE7E0-6BA7-4D60-89A1-FE9124C86CC7}">
+  <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1616,270 +2816,63 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B4" s="19">
-        <v>184</v>
+        <v>405180</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>42</v>
+      <c r="A5" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="19">
-        <v>476</v>
+        <v>50100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>43</v>
+      <c r="A6" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="19">
-        <v>3813</v>
+        <v>175740</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>44</v>
+      <c r="A7" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="19">
-        <v>50374</v>
+        <v>64980</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B8" s="19">
-        <v>2850</v>
+        <v>114360</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>36</v>
+      <c r="A9" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="B9" s="19">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="19">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="19">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="19">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="19">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="19">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="19">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="19">
-        <v>16725</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="19">
-        <v>16725</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="19">
-        <v>30799</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="19">
-        <v>20901</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="19">
-        <v>9898</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="19">
-        <v>21976</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="19">
-        <v>21976</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="19">
-        <v>2181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="19">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="19">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="19">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="19">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="19">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="19">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="19">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="19">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="19">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="19">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="19">
-        <v>19795</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="19">
-        <v>76823</v>
+        <v>405180</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
